--- a/data/trans_dic/P55$nadie-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P55$nadie-Provincia-trans_dic.xlsx
@@ -745,31 +745,31 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.3426356763911261</v>
+        <v>0.3938809342104521</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3663538005989609</v>
+        <v>0.3586804376630705</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1806276839871404</v>
+        <v>0.1284224268333005</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.1735981973425322</v>
+        <v>0.1937814253847819</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1655904576062039</v>
+        <v>0.1714805122427565</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="n">
-        <v>0.153972158446618</v>
+        <v>0.1501182658417042</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1574087779159042</v>
+        <v>0.1644057760895365</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05938336476688313</v>
+        <v>0.06160469422564142</v>
       </c>
     </row>
     <row r="7">
@@ -862,30 +862,30 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3944274874209029</v>
+        <v>0.4724061475419312</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4749039272016576</v>
+        <v>0.3873203749348717</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>0.2385306919071292</v>
+        <v>0.2071165498147512</v>
       </c>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.07264843466401116</v>
+        <v>0.07386543125717956</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2162805301774334</v>
+        <v>0.2265523031477412</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.204617149869505</v>
+        <v>0.2030132371215885</v>
       </c>
       <c r="M9" s="5" t="inlineStr"/>
       <c r="N9" s="5" t="n">
-        <v>0.05768813163635483</v>
+        <v>0.05935223454981137</v>
       </c>
     </row>
     <row r="10">
@@ -933,7 +933,7 @@
         <v>0.03604301275904801</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.09003601021161062</v>
+        <v>0.09003601021161059</v>
       </c>
     </row>
     <row r="11">
@@ -947,7 +947,7 @@
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.04254358263598471</v>
+        <v>0.04574845296193203</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03499829166806935</v>
+        <v>0.03596260119740326</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05050423030446171</v>
+        <v>0.04646601014305682</v>
       </c>
     </row>
     <row r="12">
@@ -981,27 +981,27 @@
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.2317292260549515</v>
+        <v>0.2361904058499398</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1399003246242976</v>
+        <v>0.1635013651368373</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.2751114817040092</v>
+        <v>0.2828408203267253</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1501393953520566</v>
+        <v>0.1497306807156011</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1058694984799521</v>
+        <v>0.08317343020541415</v>
       </c>
       <c r="L12" s="5" t="inlineStr"/>
       <c r="M12" s="5" t="n">
-        <v>0.1610506125468813</v>
+        <v>0.1875392399246516</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1537018578050776</v>
+        <v>0.1531504411781857</v>
       </c>
     </row>
     <row r="13">
@@ -1049,7 +1049,7 @@
         <v>0.04729438092404497</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.007736661067846435</v>
+        <v>0.007736661067846433</v>
       </c>
     </row>
     <row r="14">
@@ -1064,7 +1064,7 @@
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="inlineStr"/>
       <c r="G14" s="5" t="n">
-        <v>0.03338150507575937</v>
+        <v>0.03395716309171579</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02385790731225013</v>
+        <v>0.02375703215928581</v>
       </c>
       <c r="L14" s="5" t="n">
         <v>0</v>
@@ -1100,28 +1100,28 @@
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="inlineStr"/>
       <c r="G15" s="5" t="n">
-        <v>0.2680873006435486</v>
+        <v>0.2782337576427273</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1388952633397113</v>
+        <v>0.13143500473483</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2301342927554823</v>
+        <v>0.2537152996674737</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05761182110962163</v>
+        <v>0.05762551653720444</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2091931860945467</v>
+        <v>0.2065481909331972</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08838137585794034</v>
+        <v>0.09440222777576429</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1480315622069174</v>
+        <v>0.1455378616737549</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03994457517474729</v>
+        <v>0.0424861453948007</v>
       </c>
     </row>
     <row r="16">
@@ -1157,7 +1157,7 @@
         <v>0.168990524426827</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.04649570193488619</v>
+        <v>0.0464957019348862</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="inlineStr"/>
       <c r="I17" s="5" t="n">
-        <v>0.04046227746968151</v>
+        <v>0.04074487129663919</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1194,7 +1194,7 @@
       <c r="K17" s="5" t="inlineStr"/>
       <c r="L17" s="5" t="inlineStr"/>
       <c r="M17" s="5" t="n">
-        <v>0.03372993009332001</v>
+        <v>0.03234729576011062</v>
       </c>
       <c r="N17" s="5" t="n">
         <v>0</v>
@@ -1214,18 +1214,18 @@
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="n">
-        <v>0.4198608000978806</v>
+        <v>0.454002226308916</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1605900198656631</v>
+        <v>0.1427192837717816</v>
       </c>
       <c r="K18" s="5" t="inlineStr"/>
       <c r="L18" s="5" t="inlineStr"/>
       <c r="M18" s="5" t="n">
-        <v>0.3675441166504667</v>
+        <v>0.3496888112039913</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1113686664767328</v>
+        <v>0.1115841215887064</v>
       </c>
     </row>
     <row r="19">
@@ -1273,7 +1273,7 @@
         <v>0.1250031945649871</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.07342973686752291</v>
+        <v>0.0734297368675229</v>
       </c>
     </row>
     <row r="20">
@@ -1287,27 +1287,27 @@
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.013647101533589</v>
+        <v>0.0137654370906388</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="inlineStr"/>
       <c r="I20" s="5" t="n">
-        <v>0.05197569832646347</v>
+        <v>0.05230952017374074</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.03650083757752477</v>
+        <v>0.03769580209237815</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L20" s="5" t="inlineStr"/>
       <c r="M20" s="5" t="n">
-        <v>0.03301056306504517</v>
+        <v>0.03218386551479821</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.03632007427083189</v>
+        <v>0.03607402127469179</v>
       </c>
     </row>
     <row r="21">
@@ -1321,27 +1321,27 @@
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.1357886904430373</v>
+        <v>0.1420819043558648</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2284316865194956</v>
+        <v>0.2483466601081522</v>
       </c>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>0.4322376927366276</v>
+        <v>0.4383524284020518</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1696088579042737</v>
+        <v>0.1654727720959351</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1477433010652915</v>
+        <v>0.1598638128857902</v>
       </c>
       <c r="L21" s="5" t="inlineStr"/>
       <c r="M21" s="5" t="n">
-        <v>0.2878676329990015</v>
+        <v>0.2988203761525838</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1284122332582748</v>
+        <v>0.125909316868879</v>
       </c>
     </row>
     <row r="22">
@@ -1365,7 +1365,7 @@
         <v>0.04007955318647037</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.09681924227849674</v>
+        <v>0.09681924227849675</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.05230946874229049</v>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04293632904723997</v>
+        <v>0.04445601166438751</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01151573389652946</v>
+        <v>0.03113712190588908</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01958930806137607</v>
+        <v>0.01964320830359108</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.0300613483674207</v>
+        <v>0.03065816115074478</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03080065408584257</v>
+        <v>0.0291732455681591</v>
       </c>
       <c r="L23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01366134879635962</v>
+        <v>0.02580615054012765</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.04075875003095313</v>
+        <v>0.03972917201085669</v>
       </c>
     </row>
     <row r="24">
@@ -1444,40 +1444,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3558595752617496</v>
+        <v>0.3513941516286498</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1840585443804237</v>
+        <v>0.1547890991939225</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1646999608131093</v>
+        <v>0.216715130440645</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2547233723706567</v>
+        <v>0.247793800239184</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1839638808490326</v>
+        <v>0.1628239633643531</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1179043866943714</v>
+        <v>0.1095578287530749</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1777300424878507</v>
+        <v>0.1651835302370492</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1355919935618375</v>
+        <v>0.1370494766537827</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1830991267948352</v>
+        <v>0.1755272013035048</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.07682303807357466</v>
+        <v>0.08023999392043887</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1466875219467884</v>
+        <v>0.1340581025287549</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1372681968984759</v>
+        <v>0.1403436441664394</v>
       </c>
     </row>
     <row r="25">
@@ -1513,7 +1513,7 @@
         <v>0.0853369932841872</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.04434138279596428</v>
+        <v>0.04434138279596427</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.08549983111664414</v>
@@ -1525,7 +1525,7 @@
         <v>0.05908496609026963</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.05006743646581302</v>
+        <v>0.05006743646581303</v>
       </c>
     </row>
     <row r="26">
@@ -1546,28 +1546,28 @@
         <v>0</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.03642157913604002</v>
+        <v>0.03821423974907998</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02298658330792161</v>
+        <v>0.02293680966573879</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02359847547040658</v>
+        <v>0.02322664143283716</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01717021195240218</v>
+        <v>0.01736340193009614</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03444752349679241</v>
+        <v>0.04079120653149437</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.01665222940732296</v>
+        <v>0.01599239372274672</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01648882121452672</v>
+        <v>0.01651379175541415</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.02037156978992461</v>
+        <v>0.02118963028396745</v>
       </c>
     </row>
     <row r="27">
@@ -1578,38 +1578,38 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1917720108799854</v>
+        <v>0.1815338844419714</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2529814121086137</v>
+        <v>0.2779573219081283</v>
       </c>
       <c r="E27" s="5" t="inlineStr"/>
       <c r="F27" s="5" t="n">
-        <v>0.2444072681171222</v>
+        <v>0.2150648172612084</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2183893311815829</v>
+        <v>0.2116326026666025</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1918890469715429</v>
+        <v>0.1730727377303568</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1946729970908993</v>
+        <v>0.1976992034858393</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.09691084177160361</v>
+        <v>0.09756694533627612</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1669198273880769</v>
+        <v>0.1617331351518796</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1503735579638589</v>
+        <v>0.1490505548829587</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1322112825000851</v>
+        <v>0.1360360465837942</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.09555222742472091</v>
+        <v>0.09630207816446375</v>
       </c>
     </row>
     <row r="28">
@@ -1645,7 +1645,7 @@
         <v>0.08287831511978425</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.04571577096654536</v>
+        <v>0.04571577096654537</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.06054996571720619</v>
@@ -1657,7 +1657,7 @@
         <v>0.06175447496768832</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.04828688822267438</v>
+        <v>0.04828688822267437</v>
       </c>
     </row>
     <row r="29">
@@ -1668,40 +1668,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0199091249666376</v>
+        <v>0.0211734986049134</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01377389946623971</v>
+        <v>0.01358335476576408</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.0299424149634934</v>
+        <v>0.02901691699966226</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.03984417408726114</v>
+        <v>0.03668331944547178</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.01053305947733116</v>
+        <v>0.008157417747656203</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.05258541567916753</v>
+        <v>0.0531969080621867</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.0322207882020415</v>
+        <v>0.03075173194792116</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.0370109929040582</v>
+        <v>0.03952450256551555</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.01508180253577991</v>
+        <v>0.01522285783921976</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.03955809089055019</v>
+        <v>0.03998281215759915</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.03494082235305049</v>
+        <v>0.03624994510954131</v>
       </c>
     </row>
     <row r="30">
@@ -1712,40 +1712,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1050816514254934</v>
+        <v>0.1131137808070915</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1021107499601447</v>
+        <v>0.1078470775490848</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.05011038817406768</v>
+        <v>0.04913859309142663</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.08560705232974312</v>
+        <v>0.08675985811115709</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1081398890618986</v>
+        <v>0.1018783828858286</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.04639682697974521</v>
+        <v>0.04711162068453293</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1286937978937972</v>
+        <v>0.1264950229359623</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.06567140122014251</v>
+        <v>0.06478859836722661</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.0899787508579853</v>
+        <v>0.09151907305314388</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.05320471741105751</v>
+        <v>0.05405815566549491</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.09216449371671438</v>
+        <v>0.09273371805964825</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.06553657826236772</v>
+        <v>0.06493848511532305</v>
       </c>
     </row>
     <row r="31">
@@ -2057,31 +2057,31 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>4036</v>
+        <v>4640</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3296</v>
+        <v>3227</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5280</v>
+        <v>3754</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>4937</v>
+        <v>5511</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>4101</v>
+        <v>4247</v>
       </c>
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="n">
-        <v>6192</v>
+        <v>6037</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>5314</v>
+        <v>5551</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>3731</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="8">
@@ -2218,30 +2218,30 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6421</v>
+        <v>7691</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11169</v>
+        <v>9109</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>5417</v>
+        <v>4703</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>4252</v>
+        <v>4323</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8433</v>
+        <v>8833</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>13474</v>
+        <v>13369</v>
       </c>
       <c r="M11" s="6" t="inlineStr"/>
       <c r="N11" s="6" t="n">
-        <v>4327</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="12">
@@ -2347,7 +2347,7 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>1073</v>
+        <v>1154</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1561</v>
+        <v>1604</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>3527</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="15">
@@ -2381,27 +2381,27 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
+        <v>5956</v>
+      </c>
+      <c r="G15" s="6" t="n">
         <v>5844</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>5001</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>4767</v>
+        <v>4901</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6698</v>
+        <v>6679</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>4887</v>
+        <v>3840</v>
       </c>
       <c r="L15" s="6" t="inlineStr"/>
       <c r="M15" s="6" t="n">
-        <v>5164</v>
+        <v>6013</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>10732</v>
+        <v>10694</v>
       </c>
     </row>
     <row r="16">
@@ -2508,7 +2508,7 @@
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="inlineStr"/>
       <c r="G18" s="6" t="n">
-        <v>1066</v>
+        <v>1084</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="L18" s="6" t="n">
         <v>0</v>
@@ -2544,28 +2544,28 @@
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="inlineStr"/>
       <c r="G19" s="6" t="n">
-        <v>8557</v>
+        <v>8881</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>5482</v>
+        <v>5187</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>6761</v>
+        <v>7454</v>
       </c>
       <c r="J19" s="6" t="n">
         <v>2189</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>9479</v>
+        <v>9359</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>5191</v>
+        <v>5544</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>6416</v>
+        <v>6307</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>2227</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="20">
@@ -2674,7 +2674,7 @@
       <c r="G22" s="6" t="inlineStr"/>
       <c r="H22" s="6" t="inlineStr"/>
       <c r="I22" s="6" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="J22" s="6" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
       <c r="K22" s="6" t="inlineStr"/>
       <c r="L22" s="6" t="inlineStr"/>
       <c r="M22" s="6" t="n">
-        <v>981</v>
+        <v>941</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0</v>
@@ -2702,18 +2702,18 @@
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="n">
-        <v>10144</v>
+        <v>10969</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2698</v>
+        <v>2398</v>
       </c>
       <c r="K23" s="6" t="inlineStr"/>
       <c r="L23" s="6" t="inlineStr"/>
       <c r="M23" s="6" t="n">
-        <v>10692</v>
+        <v>10173</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2784</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="24">
@@ -2819,27 +2819,27 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>1216</v>
+        <v>1223</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1173</v>
+        <v>1212</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="6" t="inlineStr"/>
       <c r="M26" s="6" t="n">
-        <v>1265</v>
+        <v>1233</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>2048</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="27">
@@ -2853,27 +2853,27 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>3290</v>
+        <v>3442</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>6386</v>
+        <v>6942</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>10110</v>
+        <v>10253</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>5453</v>
+        <v>5320</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>6785</v>
+        <v>7341</v>
       </c>
       <c r="L27" s="6" t="inlineStr"/>
       <c r="M27" s="6" t="n">
-        <v>11032</v>
+        <v>11452</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>7239</v>
+        <v>7098</v>
       </c>
     </row>
     <row r="28">
@@ -2976,7 +2976,7 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>803</v>
+        <v>832</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>329</v>
+        <v>890</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1962</v>
+        <v>2001</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1783</v>
+        <v>1689</v>
       </c>
       <c r="L30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1131</v>
+        <v>2136</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>3826</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="31">
@@ -3020,40 +3020,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>6659</v>
+        <v>6576</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>5398</v>
+        <v>4539</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>4353</v>
+        <v>5728</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>7283</v>
+        <v>7085</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>7207</v>
+        <v>6379</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>5821</v>
+        <v>5409</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>10011</v>
+        <v>9304</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>8850</v>
+        <v>8945</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>10599</v>
+        <v>10161</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>6045</v>
+        <v>6314</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>12139</v>
+        <v>11094</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>12884</v>
+        <v>13173</v>
       </c>
     </row>
     <row r="32">
@@ -3166,28 +3166,28 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1732</v>
+        <v>1817</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1314</v>
+        <v>1293</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1173</v>
+        <v>1186</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>2758</v>
+        <v>3266</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1128</v>
+        <v>1083</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1787</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="35">
@@ -3198,38 +3198,38 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>6232</v>
+        <v>5900</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>5268</v>
+        <v>5788</v>
       </c>
       <c r="E35" s="6" t="inlineStr"/>
       <c r="F35" s="6" t="n">
-        <v>4747</v>
+        <v>4177</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>10387</v>
+        <v>10065</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>8998</v>
+        <v>8115</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>10838</v>
+        <v>11006</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>6620</v>
+        <v>6665</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>13363</v>
+        <v>12948</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>10183</v>
+        <v>10093</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>10631</v>
+        <v>10938</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>8383</v>
+        <v>8449</v>
       </c>
     </row>
     <row r="36">
@@ -3332,40 +3332,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2520</v>
+        <v>2680</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>5064</v>
+        <v>4907</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>9201</v>
+        <v>8471</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2944</v>
+        <v>2280</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>14059</v>
+        <v>14223</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>11511</v>
+        <v>10986</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>13231</v>
+        <v>14130</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>6420</v>
+        <v>6480</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>15381</v>
+        <v>15546</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>18392</v>
+        <v>19081</v>
       </c>
     </row>
     <row r="39">
@@ -3376,40 +3376,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>13301</v>
+        <v>14318</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>14925</v>
+        <v>15764</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>6086</v>
+        <v>5968</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>14478</v>
+        <v>14673</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>24972</v>
+        <v>23526</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>12969</v>
+        <v>13169</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>34408</v>
+        <v>33820</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>23461</v>
+        <v>23145</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>32167</v>
+        <v>32718</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>22649</v>
+        <v>23012</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>35835</v>
+        <v>36057</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>34496</v>
+        <v>34181</v>
       </c>
     </row>
     <row r="40">
